--- a/tianchi.xlsx
+++ b/tianchi.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" autoCompressPictures="0" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25605" windowHeight="14235"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7770"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="180">
   <si>
     <t>基础数据</t>
   </si>
@@ -331,25 +331,7 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>shop_review_num_level</t>
-  </si>
-  <si>
-    <t>shop_review_positive_rate</t>
-  </si>
-  <si>
-    <t>shop_star_level</t>
-  </si>
-  <si>
-    <t>shop_score_service</t>
-  </si>
-  <si>
-    <t>shop_score_delivery</t>
-  </si>
-  <si>
     <t>shop_score_description</t>
-  </si>
-  <si>
-    <t>shop_score_description</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -359,22 +341,6 @@
     <t>item_sales_level</t>
   </si>
   <si>
-    <t>item_collected_level</t>
-  </si>
-  <si>
-    <t>item_pv_level</t>
-  </si>
-  <si>
-    <t>user_age_level</t>
-  </si>
-  <si>
-    <t>user_star_level</t>
-  </si>
-  <si>
-    <t>context_page_id</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>dense文件中放连续数据</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -391,12 +357,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>item_category_list</t>
-  </si>
-  <si>
-    <t>item_property_list</t>
-  </si>
-  <si>
     <t>I1</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -435,22 +395,6 @@
   </si>
   <si>
     <t>I13</t>
-  </si>
-  <si>
-    <t>C1</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>C2</t>
-  </si>
-  <si>
-    <t>C5</t>
-  </si>
-  <si>
-    <t>C6</t>
-  </si>
-  <si>
-    <t>C7</t>
   </si>
   <si>
     <t>item_brand_id</t>
@@ -468,29 +412,10 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>d1 = df.groupby('item_brand_id').count()
-d1.loc[d1['instance_id']&gt;1000] #100
-d1.loc[d1['instance_id']&gt;5000] #6
-d1.loc[d1['instance_id']&gt;10000] #4</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>这个不知道要不要，感觉也不属于类别</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>user_gender_id</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>这个感觉可以要，C5-0,c5-1,c5-2 三个类别特征</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>user_occupation_id</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>职业编号中最小2002，最大2005，-1值用众数2005填充，在样本数据中该特征只有2002,2003,2004,2005这几个值</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -508,10 +433,6 @@
   </si>
   <si>
     <t>不要？感觉也是不属于类别</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>这个共有478111数据，跟总样本差不多了</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -531,10 +452,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>item_id</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve">样本中不同的item_id共有10075个，出现1000次以上的有45个；2000次以上的有8个
 d2 = df.groupby('item_id').count()
 d2.loc[d2['instance_id']&gt;1000] #45
@@ -586,11 +503,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>min        1000.000000
-max        1004.000000</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>min           0.000000
 max          21.000000</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -627,19 +539,201 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>这个要否，如果要的话是不是需要取频率最高的前N个值进行One-Hot编码？但是这个N不知道取多大，右边是统计频数分别高于1000，2000的不同的item_id数量。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>C8    同item_id  不确定要选多大的频数N</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>C4    同item_id  不确定要选多大的频数N</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>C3   同item_id  不确定要选多大的频数N</t>
+    <t>预测数据和训练数据都减去1000</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>都减去3000</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>都减去4000</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>都减去4999</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>只需要频率大于2000的</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>d1 = df.groupby('item_brand_id').count()
+d1.loc[d1['instance_id']&gt;1000] #100
+d1.loc[d1['instance_id']&gt;5000] #6
+d1.loc[d1['instance_id']&gt;10000] #4</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>最后筛选下来5-10个左右，自己看这个阈值是多少</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>大于3000的</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>基本上全要，频率小于10的归为less</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>在GBDT的减操作上，
+每个特征对于大于2的值，
+用log(v)^2处理</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>第一步完后，全部HashCode，
+然后再取模10^6</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>训练GBDT的时候（有onehot，非常粗粒度）</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>训练FFM的时候，第二步
+（用hashcode代替onehot）</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>训练FFM的时候，第一步
+（没有onehot，只是处理一下小频率）</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>min        1000.000000
+max        1007.000000</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>user_age_level</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>user_star_level</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>shop_star_level</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>item_collected_level</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>item_pv_level</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>shop_review_num_level</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>shop_review_positive_rate</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>shop_score_service</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>shop_score_delivery</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>shop_score_description</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>C1  
+这个要否，如果要的话是不是需要取频率最高的前N个值进行One-Hot编码？但是这个N不知道取多大，右边是统计频数分别高于1000，2000的不同的item_id数量。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>C2</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>C4   同item_id  不确定要选多大的频数N</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>C5    同item_id  不确定要选多大的频数N</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>C6 这个不知道要不要，感觉也不属于类别</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>C7</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>C8</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>C3</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>这个共有478111数据，跟总样本差不多了,这个不打算要了，，因为阈值是3，，即频数大于3的一个都没有</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>C9</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>C10    同item_id  不确定要选多大的频数N</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>item_category_list</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>item_property_list</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>predict_category_property</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>shop_id</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>只需要大于3500的（N=3000，一共15个）</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>只需要大于2000的（N=3000，17个）</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>只需要大于20的, 这个值你可以调整，
+大概最后筛选下来只有10个左右即可（N=42,9个)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>同上，现在我们只需要频率大的值（只留了2002,2005）</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>如果三者的出现频率都很高，就全要了，
+如果有一个没有超过20%，就不要了（只留了0,1）</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>item_category_1 所有的的样本都有这个
+item_category_2 一共有13个，我选N=10000,这样是取5个（N=5000的话,是取7个）
+item_category_3 只有2个值，，而且出现频率太低，才几百，相对2的都太低了，不要了</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -787,7 +881,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -803,6 +897,24 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -843,7 +955,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -936,11 +1048,40 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1246,10 +1387,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D76"/>
+  <dimension ref="A1:G76"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
-      <selection activeCell="C70" sqref="C70"/>
+    <sheetView tabSelected="1" topLeftCell="A59" workbookViewId="0">
+      <selection activeCell="A72" sqref="A72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
@@ -1259,6 +1400,7 @@
     <col min="3" max="3" width="42.125" style="17" customWidth="1"/>
     <col min="4" max="4" width="35" style="18" customWidth="1"/>
     <col min="5" max="5" width="46" customWidth="1"/>
+    <col min="6" max="7" width="34" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="21" thickBot="1">
@@ -1276,7 +1418,7 @@
     </row>
     <row r="3" spans="1:4" ht="24.75" customHeight="1" thickBot="1">
       <c r="A3" s="5" t="s">
-        <v>101</v>
+        <v>90</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>3</v>
@@ -1341,7 +1483,7 @@
     </row>
     <row r="11" spans="1:4" s="6" customFormat="1" ht="86.25" customHeight="1" thickBot="1">
       <c r="A11" s="5" t="s">
-        <v>102</v>
+        <v>91</v>
       </c>
       <c r="B11" s="5" t="s">
         <v>7</v>
@@ -1479,7 +1621,7 @@
       <c r="B23" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C23" s="34" t="s">
+      <c r="C23" s="42" t="s">
         <v>71</v>
       </c>
       <c r="D23" s="18" t="s">
@@ -1493,7 +1635,7 @@
       <c r="B24" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C24" s="34"/>
+      <c r="C24" s="42"/>
       <c r="D24" s="18" t="s">
         <v>79</v>
       </c>
@@ -1505,9 +1647,9 @@
       <c r="B25" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C25" s="34"/>
+      <c r="C25" s="42"/>
       <c r="D25" s="18" t="s">
-        <v>131</v>
+        <v>109</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="38.25" customHeight="1" thickBot="1">
@@ -1517,7 +1659,7 @@
       <c r="B26" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C26" s="34"/>
+      <c r="C26" s="42"/>
       <c r="D26" s="18" t="s">
         <v>80</v>
       </c>
@@ -1582,12 +1724,12 @@
         <v>73</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="21" thickBot="1">
+    <row r="33" spans="1:7" ht="21" thickBot="1">
       <c r="A33" s="1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="17.25" thickBot="1">
+    <row r="34" spans="1:7" ht="17.25" thickBot="1">
       <c r="A34" s="2" t="s">
         <v>1</v>
       </c>
@@ -1595,7 +1737,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="35" spans="1:4" ht="29.25" customHeight="1" thickBot="1">
+    <row r="35" spans="1:7" ht="29.25" customHeight="1" thickBot="1">
       <c r="A35" s="5" t="s">
         <v>12</v>
       </c>
@@ -1606,7 +1748,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="44.25" customHeight="1" thickBot="1">
+    <row r="36" spans="1:7" ht="44.25" customHeight="1" thickBot="1">
       <c r="A36" s="9" t="s">
         <v>61</v>
       </c>
@@ -1617,7 +1759,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="37" spans="1:4" ht="44.25" customHeight="1" thickBot="1">
+    <row r="37" spans="1:7" ht="44.25" customHeight="1" thickBot="1">
       <c r="A37" s="11" t="s">
         <v>66</v>
       </c>
@@ -1631,7 +1773,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="38" spans="1:4" ht="43.5" customHeight="1" thickBot="1">
+    <row r="38" spans="1:7" ht="43.5" customHeight="1" thickBot="1">
       <c r="A38" s="9" t="s">
         <v>67</v>
       </c>
@@ -1642,7 +1784,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="39" spans="1:4" ht="42.75" customHeight="1" thickBot="1">
+    <row r="39" spans="1:7" ht="42.75" customHeight="1" thickBot="1">
       <c r="A39" s="11" t="s">
         <v>68</v>
       </c>
@@ -1656,7 +1798,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="40" spans="1:4" ht="38.25" customHeight="1" thickBot="1">
+    <row r="40" spans="1:7" ht="38.25" customHeight="1" thickBot="1">
       <c r="A40" s="9" t="s">
         <v>69</v>
       </c>
@@ -1670,9 +1812,9 @@
         <v>47</v>
       </c>
     </row>
-    <row r="41" spans="1:4" ht="40.5" customHeight="1" thickBot="1">
+    <row r="41" spans="1:7" ht="40.5" customHeight="1" thickBot="1">
       <c r="A41" s="11" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="B41" s="11" t="s">
         <v>41</v>
@@ -1684,327 +1826,479 @@
         <v>47</v>
       </c>
     </row>
-    <row r="42" spans="1:4" ht="17.25" customHeight="1">
+    <row r="42" spans="1:7" ht="17.25" customHeight="1">
       <c r="A42" s="23"/>
       <c r="B42" s="23"/>
       <c r="C42" s="15"/>
     </row>
-    <row r="46" spans="1:4" ht="20.25">
+    <row r="46" spans="1:7" ht="20.25">
       <c r="A46" s="26" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" ht="100.5" customHeight="1">
       <c r="A47" s="29" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="48" spans="1:4" ht="27">
+      <c r="E47" s="35" t="s">
+        <v>145</v>
+      </c>
+      <c r="F47" s="41" t="s">
+        <v>147</v>
+      </c>
+      <c r="G47" s="40" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" ht="27">
       <c r="A48" s="29" t="s">
+        <v>86</v>
+      </c>
+      <c r="B48" t="s">
         <v>92</v>
       </c>
-      <c r="B48" t="s">
-        <v>105</v>
-      </c>
       <c r="C48" s="17" t="s">
+        <v>129</v>
+      </c>
+      <c r="E48" s="35"/>
+      <c r="F48" s="43" t="s">
+        <v>143</v>
+      </c>
+      <c r="G48" s="45" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" ht="27">
+      <c r="A49" s="29" t="s">
+        <v>87</v>
+      </c>
+      <c r="B49" t="s">
+        <v>93</v>
+      </c>
+      <c r="C49" s="17" t="s">
+        <v>128</v>
+      </c>
+      <c r="E49" s="35"/>
+      <c r="F49" s="44"/>
+      <c r="G49" s="45"/>
+    </row>
+    <row r="50" spans="1:7" ht="27">
+      <c r="A50" s="29" t="s">
+        <v>152</v>
+      </c>
+      <c r="B50" t="s">
+        <v>94</v>
+      </c>
+      <c r="C50" s="17" t="s">
+        <v>127</v>
+      </c>
+      <c r="E50" s="35"/>
+      <c r="F50" s="44"/>
+      <c r="G50" s="45"/>
+    </row>
+    <row r="51" spans="1:7" ht="27">
+      <c r="A51" s="29" t="s">
+        <v>153</v>
+      </c>
+      <c r="B51" t="s">
+        <v>95</v>
+      </c>
+      <c r="C51" s="17" t="s">
+        <v>126</v>
+      </c>
+      <c r="E51" s="35"/>
+      <c r="F51" s="44"/>
+      <c r="G51" s="45"/>
+    </row>
+    <row r="52" spans="1:7" ht="27">
+      <c r="A52" s="29" t="s">
+        <v>149</v>
+      </c>
+      <c r="B52" t="s">
+        <v>96</v>
+      </c>
+      <c r="C52" s="17" t="s">
+        <v>148</v>
+      </c>
+      <c r="D52" s="18" t="s">
+        <v>130</v>
+      </c>
+      <c r="E52" s="35" t="s">
+        <v>134</v>
+      </c>
+      <c r="F52" s="44"/>
+      <c r="G52" s="45"/>
+    </row>
+    <row r="53" spans="1:7" ht="27">
+      <c r="A53" s="29" t="s">
+        <v>150</v>
+      </c>
+      <c r="B53" t="s">
+        <v>97</v>
+      </c>
+      <c r="C53" s="17" t="s">
+        <v>125</v>
+      </c>
+      <c r="D53" s="18" t="s">
+        <v>133</v>
+      </c>
+      <c r="E53" s="35" t="s">
+        <v>135</v>
+      </c>
+      <c r="F53" s="44"/>
+      <c r="G53" s="45"/>
+    </row>
+    <row r="54" spans="1:7" ht="57.75" customHeight="1">
+      <c r="A54" s="29" t="s">
+        <v>53</v>
+      </c>
+      <c r="B54" t="s">
+        <v>98</v>
+      </c>
+      <c r="C54" s="17" t="s">
+        <v>124</v>
+      </c>
+      <c r="D54" s="18" t="s">
+        <v>131</v>
+      </c>
+      <c r="E54" s="35" t="s">
+        <v>136</v>
+      </c>
+      <c r="F54" s="44"/>
+      <c r="G54" s="45"/>
+    </row>
+    <row r="55" spans="1:7" ht="33" customHeight="1">
+      <c r="A55" s="29" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="49" spans="1:4" ht="27">
-      <c r="A49" s="29" t="s">
-        <v>93</v>
-      </c>
-      <c r="B49" t="s">
-        <v>106</v>
-      </c>
-      <c r="C49" s="17" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" ht="27">
-      <c r="A50" s="29" t="s">
-        <v>94</v>
-      </c>
-      <c r="B50" t="s">
-        <v>107</v>
-      </c>
-      <c r="C50" s="17" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" ht="27">
-      <c r="A51" s="29" t="s">
-        <v>95</v>
-      </c>
-      <c r="B51" t="s">
-        <v>108</v>
-      </c>
-      <c r="C51" s="17" t="s">
+      <c r="B55" t="s">
+        <v>99</v>
+      </c>
+      <c r="C55" s="17" t="s">
+        <v>123</v>
+      </c>
+      <c r="E55" s="35"/>
+      <c r="F55" s="44"/>
+      <c r="G55" s="45"/>
+    </row>
+    <row r="56" spans="1:7" ht="27">
+      <c r="A56" s="29" t="s">
+        <v>155</v>
+      </c>
+      <c r="B56" t="s">
+        <v>100</v>
+      </c>
+      <c r="C56" s="17" t="s">
+        <v>122</v>
+      </c>
+      <c r="E56" s="35"/>
+      <c r="F56" s="44"/>
+      <c r="G56" s="45"/>
+    </row>
+    <row r="57" spans="1:7" ht="67.5">
+      <c r="A57" s="33" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="52" spans="1:4" ht="27">
-      <c r="A52" s="29" t="s">
-        <v>96</v>
-      </c>
-      <c r="B52" t="s">
-        <v>109</v>
-      </c>
-      <c r="C52" s="17" t="s">
-        <v>150</v>
-      </c>
-      <c r="D52" s="18" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" ht="27">
-      <c r="A53" s="29" t="s">
-        <v>97</v>
-      </c>
-      <c r="B53" t="s">
-        <v>110</v>
-      </c>
-      <c r="C53" s="17" t="s">
-        <v>149</v>
-      </c>
-      <c r="D53" s="18" t="s">
+      <c r="B57" t="s">
+        <v>101</v>
+      </c>
+      <c r="C57" s="17" t="s">
+        <v>118</v>
+      </c>
+      <c r="D57" s="18" t="s">
+        <v>132</v>
+      </c>
+      <c r="E57" s="35" t="s">
+        <v>137</v>
+      </c>
+      <c r="F57" s="44"/>
+      <c r="G57" s="45"/>
+    </row>
+    <row r="58" spans="1:7" ht="27">
+      <c r="A58" s="29" t="s">
+        <v>156</v>
+      </c>
+      <c r="B58" t="s">
+        <v>102</v>
+      </c>
+      <c r="C58" s="17" t="s">
+        <v>121</v>
+      </c>
+      <c r="E58" s="35"/>
+      <c r="F58" s="44"/>
+      <c r="G58" s="45"/>
+    </row>
+    <row r="59" spans="1:7" ht="27">
+      <c r="A59" s="29" t="s">
+        <v>157</v>
+      </c>
+      <c r="B59" t="s">
+        <v>103</v>
+      </c>
+      <c r="C59" s="17" t="s">
+        <v>120</v>
+      </c>
+      <c r="E59" s="35"/>
+      <c r="F59" s="44"/>
+      <c r="G59" s="45"/>
+    </row>
+    <row r="60" spans="1:7" ht="27">
+      <c r="A60" s="29" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="54" spans="1:4" ht="57.75" customHeight="1">
-      <c r="A54" s="29" t="s">
-        <v>98</v>
-      </c>
-      <c r="B54" t="s">
-        <v>111</v>
-      </c>
-      <c r="C54" s="17" t="s">
-        <v>148</v>
-      </c>
-      <c r="D54" s="18" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" ht="33" customHeight="1">
-      <c r="A55" s="29" t="s">
-        <v>85</v>
-      </c>
-      <c r="B55" t="s">
-        <v>112</v>
-      </c>
-      <c r="C55" s="17" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" ht="27">
-      <c r="A56" s="29" t="s">
-        <v>86</v>
-      </c>
-      <c r="B56" t="s">
-        <v>113</v>
-      </c>
-      <c r="C56" s="17" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" ht="67.5">
-      <c r="A57" s="33" t="s">
-        <v>87</v>
-      </c>
-      <c r="B57" t="s">
-        <v>114</v>
-      </c>
-      <c r="C57" s="17" t="s">
-        <v>142</v>
-      </c>
-      <c r="D57" s="18" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" ht="27">
-      <c r="A58" s="29" t="s">
-        <v>88</v>
-      </c>
-      <c r="B58" t="s">
-        <v>115</v>
-      </c>
-      <c r="C58" s="17" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" ht="27">
-      <c r="A59" s="29" t="s">
+      <c r="B60" t="s">
+        <v>104</v>
+      </c>
+      <c r="C60" s="17" t="s">
+        <v>119</v>
+      </c>
+      <c r="E60" s="35"/>
+      <c r="F60" s="44"/>
+      <c r="G60" s="45"/>
+    </row>
+    <row r="61" spans="1:7">
+      <c r="E61" s="35"/>
+      <c r="F61" s="38"/>
+      <c r="G61" s="45"/>
+    </row>
+    <row r="62" spans="1:7">
+      <c r="E62" s="35"/>
+      <c r="F62" s="38"/>
+      <c r="G62" s="45"/>
+    </row>
+    <row r="63" spans="1:7">
+      <c r="E63" s="35"/>
+      <c r="F63" s="38"/>
+      <c r="G63" s="45"/>
+    </row>
+    <row r="64" spans="1:7" ht="20.25">
+      <c r="A64" s="25" t="s">
         <v>89</v>
-      </c>
-      <c r="B59" t="s">
-        <v>116</v>
-      </c>
-      <c r="C59" s="17" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" ht="27">
-      <c r="A60" s="29" t="s">
-        <v>90</v>
-      </c>
-      <c r="B60" t="s">
-        <v>117</v>
-      </c>
-      <c r="C60" s="17" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" ht="20.25">
-      <c r="A64" s="25" t="s">
-        <v>100</v>
       </c>
       <c r="B64" s="18"/>
       <c r="C64"/>
       <c r="D64" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
-      <c r="A65" s="24" t="s">
+        <v>111</v>
+      </c>
+      <c r="E64" s="35"/>
+      <c r="F64" s="38"/>
+      <c r="G64" s="45"/>
+    </row>
+    <row r="65" spans="1:7">
+      <c r="A65" s="46" t="s">
         <v>4</v>
       </c>
       <c r="B65" s="18"/>
       <c r="C65"/>
       <c r="D65"/>
-    </row>
-    <row r="66" spans="1:4" ht="92.25" customHeight="1">
+      <c r="E65" s="35"/>
+      <c r="F65" s="38"/>
+      <c r="G65" s="45"/>
+    </row>
+    <row r="66" spans="1:7" ht="92.25" customHeight="1">
       <c r="A66" s="27" t="s">
-        <v>140</v>
+        <v>91</v>
       </c>
       <c r="B66" s="18" t="s">
         <v>159</v>
       </c>
       <c r="C66" s="28" t="s">
-        <v>141</v>
-      </c>
-      <c r="D66"/>
-    </row>
-    <row r="67" spans="1:4">
-      <c r="A67" s="35" t="s">
-        <v>103</v>
+        <v>117</v>
+      </c>
+      <c r="D66" s="31">
+        <v>8</v>
+      </c>
+      <c r="E66" s="36" t="s">
+        <v>138</v>
+      </c>
+      <c r="F66" s="39" t="s">
+        <v>142</v>
+      </c>
+      <c r="G66" s="45"/>
+    </row>
+    <row r="67" spans="1:7" ht="68.25" customHeight="1">
+      <c r="A67" s="34" t="s">
+        <v>170</v>
       </c>
       <c r="B67" s="18" t="s">
-        <v>118</v>
-      </c>
-      <c r="C67"/>
+        <v>160</v>
+      </c>
+      <c r="C67" s="18" t="s">
+        <v>179</v>
+      </c>
       <c r="D67"/>
-    </row>
-    <row r="68" spans="1:4">
-      <c r="A68" s="35" t="s">
-        <v>104</v>
+      <c r="E67" s="35"/>
+      <c r="F67" s="38"/>
+      <c r="G67" s="45"/>
+    </row>
+    <row r="68" spans="1:7" ht="49.5" customHeight="1">
+      <c r="A68" s="34" t="s">
+        <v>171</v>
       </c>
       <c r="B68" s="18" t="s">
-        <v>119</v>
+        <v>166</v>
       </c>
       <c r="C68"/>
       <c r="D68"/>
-    </row>
-    <row r="69" spans="1:4" ht="65.25" customHeight="1">
+      <c r="E68" s="35"/>
+      <c r="F68" s="38"/>
+      <c r="G68" s="45"/>
+    </row>
+    <row r="69" spans="1:7" ht="65.25" customHeight="1">
       <c r="A69" s="24" t="s">
-        <v>123</v>
+        <v>105</v>
       </c>
       <c r="B69" s="18" t="s">
+        <v>161</v>
+      </c>
+      <c r="C69" s="18" t="s">
+        <v>139</v>
+      </c>
+      <c r="D69"/>
+      <c r="E69" s="37" t="s">
+        <v>175</v>
+      </c>
+      <c r="F69" s="39" t="s">
+        <v>142</v>
+      </c>
+      <c r="G69" s="45"/>
+    </row>
+    <row r="70" spans="1:7" ht="80.25" customHeight="1">
+      <c r="A70" s="24" t="s">
+        <v>106</v>
+      </c>
+      <c r="B70" s="18" t="s">
         <v>162</v>
       </c>
-      <c r="C69" s="18" t="s">
-        <v>126</v>
-      </c>
-      <c r="D69"/>
-    </row>
-    <row r="70" spans="1:4" ht="80.25" customHeight="1">
-      <c r="A70" s="24" t="s">
-        <v>124</v>
-      </c>
-      <c r="B70" s="18" t="s">
-        <v>161</v>
-      </c>
       <c r="C70" s="32" t="s">
-        <v>125</v>
+        <v>107</v>
       </c>
       <c r="D70"/>
-    </row>
-    <row r="71" spans="1:4" ht="45.75" customHeight="1">
+      <c r="E70" s="36" t="s">
+        <v>174</v>
+      </c>
+      <c r="F70" s="39" t="s">
+        <v>142</v>
+      </c>
+      <c r="G70" s="45"/>
+    </row>
+    <row r="71" spans="1:7" ht="45.75" customHeight="1">
       <c r="A71" s="30" t="s">
-        <v>138</v>
+        <v>115</v>
       </c>
       <c r="B71" s="18" t="s">
-        <v>127</v>
+        <v>163</v>
       </c>
       <c r="C71" s="18" t="s">
-        <v>139</v>
+        <v>116</v>
       </c>
       <c r="D71"/>
-    </row>
-    <row r="72" spans="1:4" ht="30.75" customHeight="1">
+      <c r="E71" s="37" t="s">
+        <v>176</v>
+      </c>
+      <c r="F71" s="39" t="s">
+        <v>142</v>
+      </c>
+      <c r="G71" s="45"/>
+    </row>
+    <row r="72" spans="1:7" ht="30.75" customHeight="1">
       <c r="A72" s="24" t="s">
-        <v>128</v>
+        <v>75</v>
       </c>
       <c r="B72" s="18" t="s">
-        <v>120</v>
+        <v>164</v>
       </c>
       <c r="C72" s="18" t="s">
-        <v>129</v>
+        <v>108</v>
       </c>
       <c r="D72" s="31">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="1:4" ht="60.75" customHeight="1">
+      <c r="E72" s="37" t="s">
+        <v>178</v>
+      </c>
+      <c r="F72" s="39" t="s">
+        <v>142</v>
+      </c>
+      <c r="G72" s="45"/>
+    </row>
+    <row r="73" spans="1:7" ht="60.75" customHeight="1">
       <c r="A73" s="24" t="s">
-        <v>130</v>
+        <v>72</v>
       </c>
       <c r="B73" s="18" t="s">
-        <v>121</v>
+        <v>165</v>
       </c>
       <c r="C73" s="18" t="s">
-        <v>132</v>
+        <v>110</v>
       </c>
       <c r="D73" s="31">
         <v>4</v>
       </c>
-    </row>
-    <row r="74" spans="1:4" ht="21.75" customHeight="1">
+      <c r="E73" s="37" t="s">
+        <v>177</v>
+      </c>
+      <c r="F73" s="39" t="s">
+        <v>142</v>
+      </c>
+      <c r="G73" s="45"/>
+    </row>
+    <row r="74" spans="1:7" ht="46.5" customHeight="1">
       <c r="A74" s="24" t="s">
-        <v>134</v>
+        <v>112</v>
       </c>
       <c r="B74" s="18" t="s">
-        <v>135</v>
+        <v>113</v>
       </c>
       <c r="C74" s="18" t="s">
-        <v>136</v>
+        <v>167</v>
       </c>
       <c r="D74"/>
-    </row>
-    <row r="75" spans="1:4" ht="20.25" customHeight="1">
-      <c r="A75" s="35" t="s">
-        <v>33</v>
+      <c r="E74" s="37" t="s">
+        <v>140</v>
+      </c>
+      <c r="F74" s="39" t="s">
+        <v>142</v>
+      </c>
+      <c r="G74" s="45"/>
+    </row>
+    <row r="75" spans="1:7" ht="20.25" customHeight="1">
+      <c r="A75" s="34" t="s">
+        <v>172</v>
       </c>
       <c r="B75" s="18" t="s">
-        <v>122</v>
+        <v>168</v>
       </c>
       <c r="C75"/>
       <c r="D75"/>
-    </row>
-    <row r="76" spans="1:4" ht="83.25" customHeight="1">
+      <c r="E75" s="35"/>
+      <c r="F75" s="39"/>
+      <c r="G75" s="45"/>
+    </row>
+    <row r="76" spans="1:7" ht="83.25" customHeight="1">
       <c r="A76" s="24" t="s">
-        <v>12</v>
+        <v>173</v>
       </c>
       <c r="B76" s="18" t="s">
-        <v>160</v>
+        <v>169</v>
       </c>
       <c r="C76" s="24" t="s">
-        <v>137</v>
+        <v>114</v>
       </c>
       <c r="D76"/>
+      <c r="E76" s="37" t="s">
+        <v>141</v>
+      </c>
+      <c r="F76" s="39" t="s">
+        <v>142</v>
+      </c>
+      <c r="G76" s="45"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="3">
     <mergeCell ref="C23:C26"/>
+    <mergeCell ref="F48:F60"/>
+    <mergeCell ref="G48:G76"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/tianchi.xlsx
+++ b/tianchi.xlsx
@@ -657,39 +657,11 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>C4   同item_id  不确定要选多大的频数N</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>C5    同item_id  不确定要选多大的频数N</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>C6 这个不知道要不要，感觉也不属于类别</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>C7</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>C8</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>C3</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>这个共有478111数据，跟总样本差不多了,这个不打算要了，，因为阈值是3，，即频数大于3的一个都没有</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>C9</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>C10    同item_id  不确定要选多大的频数N</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -734,6 +706,34 @@
     <t>item_category_1 所有的的样本都有这个
 item_category_2 一共有13个，我选N=10000,这样是取5个（N=5000的话,是取7个）
 item_category_3 只有2个值，，而且出现频率太低，才几百，相对2的都太低了，不要了</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>C10</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>C3 同item_id  不确定要选多大的频数N</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>C4   同item_id  不确定要选多大的频数N</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>C5 这个不知道要不要，感觉也不属于类别</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>C6</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>C7</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>C8    同item_id  不确定要选多大的频数N</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -1068,6 +1068,9 @@
     <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1079,9 +1082,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1387,10 +1387,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G76"/>
+  <dimension ref="A1:G78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A59" workbookViewId="0">
-      <selection activeCell="A72" sqref="A72"/>
+    <sheetView tabSelected="1" topLeftCell="A71" workbookViewId="0">
+      <selection activeCell="B74" sqref="B74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
@@ -1621,7 +1621,7 @@
       <c r="B23" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C23" s="42" t="s">
+      <c r="C23" s="43" t="s">
         <v>71</v>
       </c>
       <c r="D23" s="18" t="s">
@@ -1635,7 +1635,7 @@
       <c r="B24" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C24" s="42"/>
+      <c r="C24" s="43"/>
       <c r="D24" s="18" t="s">
         <v>79</v>
       </c>
@@ -1647,7 +1647,7 @@
       <c r="B25" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C25" s="42"/>
+      <c r="C25" s="43"/>
       <c r="D25" s="18" t="s">
         <v>109</v>
       </c>
@@ -1659,7 +1659,7 @@
       <c r="B26" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C26" s="42"/>
+      <c r="C26" s="43"/>
       <c r="D26" s="18" t="s">
         <v>80</v>
       </c>
@@ -1861,10 +1861,10 @@
         <v>129</v>
       </c>
       <c r="E48" s="35"/>
-      <c r="F48" s="43" t="s">
+      <c r="F48" s="44" t="s">
         <v>143</v>
       </c>
-      <c r="G48" s="45" t="s">
+      <c r="G48" s="46" t="s">
         <v>144</v>
       </c>
     </row>
@@ -1879,8 +1879,8 @@
         <v>128</v>
       </c>
       <c r="E49" s="35"/>
-      <c r="F49" s="44"/>
-      <c r="G49" s="45"/>
+      <c r="F49" s="45"/>
+      <c r="G49" s="46"/>
     </row>
     <row r="50" spans="1:7" ht="27">
       <c r="A50" s="29" t="s">
@@ -1893,8 +1893,8 @@
         <v>127</v>
       </c>
       <c r="E50" s="35"/>
-      <c r="F50" s="44"/>
-      <c r="G50" s="45"/>
+      <c r="F50" s="45"/>
+      <c r="G50" s="46"/>
     </row>
     <row r="51" spans="1:7" ht="27">
       <c r="A51" s="29" t="s">
@@ -1907,8 +1907,8 @@
         <v>126</v>
       </c>
       <c r="E51" s="35"/>
-      <c r="F51" s="44"/>
-      <c r="G51" s="45"/>
+      <c r="F51" s="45"/>
+      <c r="G51" s="46"/>
     </row>
     <row r="52" spans="1:7" ht="27">
       <c r="A52" s="29" t="s">
@@ -1926,8 +1926,8 @@
       <c r="E52" s="35" t="s">
         <v>134</v>
       </c>
-      <c r="F52" s="44"/>
-      <c r="G52" s="45"/>
+      <c r="F52" s="45"/>
+      <c r="G52" s="46"/>
     </row>
     <row r="53" spans="1:7" ht="27">
       <c r="A53" s="29" t="s">
@@ -1945,8 +1945,8 @@
       <c r="E53" s="35" t="s">
         <v>135</v>
       </c>
-      <c r="F53" s="44"/>
-      <c r="G53" s="45"/>
+      <c r="F53" s="45"/>
+      <c r="G53" s="46"/>
     </row>
     <row r="54" spans="1:7" ht="57.75" customHeight="1">
       <c r="A54" s="29" t="s">
@@ -1964,8 +1964,8 @@
       <c r="E54" s="35" t="s">
         <v>136</v>
       </c>
-      <c r="F54" s="44"/>
-      <c r="G54" s="45"/>
+      <c r="F54" s="45"/>
+      <c r="G54" s="46"/>
     </row>
     <row r="55" spans="1:7" ht="33" customHeight="1">
       <c r="A55" s="29" t="s">
@@ -1978,8 +1978,8 @@
         <v>123</v>
       </c>
       <c r="E55" s="35"/>
-      <c r="F55" s="44"/>
-      <c r="G55" s="45"/>
+      <c r="F55" s="45"/>
+      <c r="G55" s="46"/>
     </row>
     <row r="56" spans="1:7" ht="27">
       <c r="A56" s="29" t="s">
@@ -1992,8 +1992,8 @@
         <v>122</v>
       </c>
       <c r="E56" s="35"/>
-      <c r="F56" s="44"/>
-      <c r="G56" s="45"/>
+      <c r="F56" s="45"/>
+      <c r="G56" s="46"/>
     </row>
     <row r="57" spans="1:7" ht="67.5">
       <c r="A57" s="33" t="s">
@@ -2011,8 +2011,8 @@
       <c r="E57" s="35" t="s">
         <v>137</v>
       </c>
-      <c r="F57" s="44"/>
-      <c r="G57" s="45"/>
+      <c r="F57" s="45"/>
+      <c r="G57" s="46"/>
     </row>
     <row r="58" spans="1:7" ht="27">
       <c r="A58" s="29" t="s">
@@ -2025,8 +2025,8 @@
         <v>121</v>
       </c>
       <c r="E58" s="35"/>
-      <c r="F58" s="44"/>
-      <c r="G58" s="45"/>
+      <c r="F58" s="45"/>
+      <c r="G58" s="46"/>
     </row>
     <row r="59" spans="1:7" ht="27">
       <c r="A59" s="29" t="s">
@@ -2039,8 +2039,8 @@
         <v>120</v>
       </c>
       <c r="E59" s="35"/>
-      <c r="F59" s="44"/>
-      <c r="G59" s="45"/>
+      <c r="F59" s="45"/>
+      <c r="G59" s="46"/>
     </row>
     <row r="60" spans="1:7" ht="27">
       <c r="A60" s="29" t="s">
@@ -2053,23 +2053,23 @@
         <v>119</v>
       </c>
       <c r="E60" s="35"/>
-      <c r="F60" s="44"/>
-      <c r="G60" s="45"/>
+      <c r="F60" s="45"/>
+      <c r="G60" s="46"/>
     </row>
     <row r="61" spans="1:7">
       <c r="E61" s="35"/>
       <c r="F61" s="38"/>
-      <c r="G61" s="45"/>
+      <c r="G61" s="46"/>
     </row>
     <row r="62" spans="1:7">
       <c r="E62" s="35"/>
       <c r="F62" s="38"/>
-      <c r="G62" s="45"/>
+      <c r="G62" s="46"/>
     </row>
     <row r="63" spans="1:7">
       <c r="E63" s="35"/>
       <c r="F63" s="38"/>
-      <c r="G63" s="45"/>
+      <c r="G63" s="46"/>
     </row>
     <row r="64" spans="1:7" ht="20.25">
       <c r="A64" s="25" t="s">
@@ -2082,10 +2082,10 @@
       </c>
       <c r="E64" s="35"/>
       <c r="F64" s="38"/>
-      <c r="G64" s="45"/>
+      <c r="G64" s="46"/>
     </row>
     <row r="65" spans="1:7">
-      <c r="A65" s="46" t="s">
+      <c r="A65" s="42" t="s">
         <v>4</v>
       </c>
       <c r="B65" s="18"/>
@@ -2093,7 +2093,7 @@
       <c r="D65"/>
       <c r="E65" s="35"/>
       <c r="F65" s="38"/>
-      <c r="G65" s="45"/>
+      <c r="G65" s="46"/>
     </row>
     <row r="66" spans="1:7" ht="92.25" customHeight="1">
       <c r="A66" s="27" t="s">
@@ -2114,99 +2114,93 @@
       <c r="F66" s="39" t="s">
         <v>142</v>
       </c>
-      <c r="G66" s="45"/>
+      <c r="G66" s="46"/>
     </row>
     <row r="67" spans="1:7" ht="68.25" customHeight="1">
       <c r="A67" s="34" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="B67" s="18" t="s">
         <v>160</v>
       </c>
       <c r="C67" s="18" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="D67"/>
       <c r="E67" s="35"/>
       <c r="F67" s="38"/>
-      <c r="G67" s="45"/>
+      <c r="G67" s="46"/>
     </row>
     <row r="68" spans="1:7" ht="49.5" customHeight="1">
-      <c r="A68" s="34" t="s">
-        <v>171</v>
-      </c>
-      <c r="B68" s="18" t="s">
-        <v>166</v>
-      </c>
       <c r="C68"/>
       <c r="D68"/>
       <c r="E68" s="35"/>
       <c r="F68" s="38"/>
-      <c r="G68" s="45"/>
+      <c r="G68" s="46"/>
     </row>
     <row r="69" spans="1:7" ht="65.25" customHeight="1">
       <c r="A69" s="24" t="s">
         <v>105</v>
       </c>
       <c r="B69" s="18" t="s">
-        <v>161</v>
+        <v>174</v>
       </c>
       <c r="C69" s="18" t="s">
         <v>139</v>
       </c>
       <c r="D69"/>
       <c r="E69" s="37" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="F69" s="39" t="s">
         <v>142</v>
       </c>
-      <c r="G69" s="45"/>
+      <c r="G69" s="46"/>
     </row>
     <row r="70" spans="1:7" ht="80.25" customHeight="1">
       <c r="A70" s="24" t="s">
         <v>106</v>
       </c>
       <c r="B70" s="18" t="s">
-        <v>162</v>
+        <v>175</v>
       </c>
       <c r="C70" s="32" t="s">
         <v>107</v>
       </c>
       <c r="D70"/>
       <c r="E70" s="36" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
       <c r="F70" s="39" t="s">
         <v>142</v>
       </c>
-      <c r="G70" s="45"/>
+      <c r="G70" s="46"/>
     </row>
     <row r="71" spans="1:7" ht="45.75" customHeight="1">
       <c r="A71" s="30" t="s">
         <v>115</v>
       </c>
       <c r="B71" s="18" t="s">
-        <v>163</v>
+        <v>176</v>
       </c>
       <c r="C71" s="18" t="s">
         <v>116</v>
       </c>
       <c r="D71"/>
       <c r="E71" s="37" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
       <c r="F71" s="39" t="s">
         <v>142</v>
       </c>
-      <c r="G71" s="45"/>
+      <c r="G71" s="46"/>
     </row>
     <row r="72" spans="1:7" ht="30.75" customHeight="1">
       <c r="A72" s="24" t="s">
         <v>75</v>
       </c>
       <c r="B72" s="18" t="s">
-        <v>164</v>
+        <v>177</v>
       </c>
       <c r="C72" s="18" t="s">
         <v>108</v>
@@ -2215,19 +2209,19 @@
         <v>3</v>
       </c>
       <c r="E72" s="37" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="F72" s="39" t="s">
         <v>142</v>
       </c>
-      <c r="G72" s="45"/>
+      <c r="G72" s="46"/>
     </row>
     <row r="73" spans="1:7" ht="60.75" customHeight="1">
       <c r="A73" s="24" t="s">
         <v>72</v>
       </c>
       <c r="B73" s="18" t="s">
-        <v>165</v>
+        <v>178</v>
       </c>
       <c r="C73" s="18" t="s">
         <v>110</v>
@@ -2236,12 +2230,12 @@
         <v>4</v>
       </c>
       <c r="E73" s="37" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="F73" s="39" t="s">
         <v>142</v>
       </c>
-      <c r="G73" s="45"/>
+      <c r="G73" s="46"/>
     </row>
     <row r="74" spans="1:7" ht="46.5" customHeight="1">
       <c r="A74" s="24" t="s">
@@ -2251,7 +2245,7 @@
         <v>113</v>
       </c>
       <c r="C74" s="18" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="D74"/>
       <c r="E74" s="37" t="s">
@@ -2260,27 +2254,21 @@
       <c r="F74" s="39" t="s">
         <v>142</v>
       </c>
-      <c r="G74" s="45"/>
+      <c r="G74" s="46"/>
     </row>
     <row r="75" spans="1:7" ht="20.25" customHeight="1">
-      <c r="A75" s="34" t="s">
-        <v>172</v>
-      </c>
-      <c r="B75" s="18" t="s">
-        <v>168</v>
-      </c>
       <c r="C75"/>
       <c r="D75"/>
       <c r="E75" s="35"/>
       <c r="F75" s="39"/>
-      <c r="G75" s="45"/>
+      <c r="G75" s="46"/>
     </row>
     <row r="76" spans="1:7" ht="83.25" customHeight="1">
       <c r="A76" s="24" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="B76" s="18" t="s">
-        <v>169</v>
+        <v>179</v>
       </c>
       <c r="C76" s="24" t="s">
         <v>114</v>
@@ -2292,7 +2280,23 @@
       <c r="F76" s="39" t="s">
         <v>142</v>
       </c>
-      <c r="G76" s="45"/>
+      <c r="G76" s="46"/>
+    </row>
+    <row r="77" spans="1:7">
+      <c r="A77" s="34" t="s">
+        <v>164</v>
+      </c>
+      <c r="B77" s="18" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7">
+      <c r="A78" s="34" t="s">
+        <v>165</v>
+      </c>
+      <c r="B78" s="18" t="s">
+        <v>173</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="3">

--- a/tianchi.xlsx
+++ b/tianchi.xlsx
@@ -1389,8 +1389,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A71" workbookViewId="0">
-      <selection activeCell="B74" sqref="B74"/>
+    <sheetView tabSelected="1" topLeftCell="B65" workbookViewId="0">
+      <selection activeCell="D67" sqref="D67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
